--- a/files/resultados/2021/resultados_2021.xlsx
+++ b/files/resultados/2021/resultados_2021.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622A504-B2FE-4FD8-AA13-7CFE63CC4F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>res_c1</t>
   </si>
@@ -509,13 +515,16 @@
   </si>
   <si>
     <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
+  </si>
+  <si>
+    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,13 +587,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +639,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -656,6 +673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -690,9 +708,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,14 +884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC28" workbookViewId="0">
+      <selection activeCell="AQ37" sqref="AQ37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F2">
         <v>68</v>
@@ -1146,12 +1167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>42.40000000000001</v>
+        <v>42.400000000000013</v>
       </c>
       <c r="B3">
-        <v>32.14285714285714</v>
+        <v>32.142857142857139</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -1262,7 +1283,7 @@
         <v>0.5</v>
       </c>
       <c r="AM3">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AN3">
         <v>0.7</v>
@@ -1283,21 +1304,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>39.88</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="B4">
-        <v>39.28571428571428</v>
+        <v>39.285714285714278</v>
       </c>
       <c r="C4">
         <v>17.8</v>
       </c>
       <c r="D4">
-        <v>27.15333333333333</v>
+        <v>27.153333333333329</v>
       </c>
       <c r="E4">
-        <v>32.24299999999999</v>
+        <v>32.242999999999988</v>
       </c>
       <c r="F4">
         <v>54</v>
@@ -1375,10 +1396,10 @@
         <v>1.4</v>
       </c>
       <c r="AE4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1402,7 +1423,7 @@
         <v>0.3</v>
       </c>
       <c r="AN4">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO4">
         <v>0.3</v>
@@ -1420,21 +1441,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>46.88</v>
       </c>
       <c r="B5">
-        <v>36.11428571428571</v>
+        <v>36.114285714285707</v>
       </c>
       <c r="C5">
         <v>26.2</v>
       </c>
       <c r="D5">
-        <v>29.26666666666667</v>
+        <v>29.266666666666669</v>
       </c>
       <c r="E5">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F5">
         <v>47</v>
@@ -1521,7 +1542,7 @@
         <v>1.5</v>
       </c>
       <c r="AH5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI5">
         <v>0.5</v>
@@ -1557,21 +1578,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>23.2</v>
       </c>
       <c r="B6">
-        <v>30.57142857142857</v>
+        <v>30.571428571428569</v>
       </c>
       <c r="C6">
         <v>13.2</v>
       </c>
       <c r="D6">
-        <v>41.21333333333334</v>
+        <v>41.213333333333338</v>
       </c>
       <c r="E6">
-        <v>25.982</v>
+        <v>25.981999999999999</v>
       </c>
       <c r="F6">
         <v>62</v>
@@ -1673,16 +1694,16 @@
         <v>0.5</v>
       </c>
       <c r="AM6">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AN6">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AQ6">
         <v>0.24</v>
@@ -1694,12 +1715,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>17.14285714285714</v>
+        <v>17.142857142857139</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1789,7 +1810,7 @@
         <v>0.4</v>
       </c>
       <c r="AF7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1813,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO7">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AP7">
         <v>0.24</v>
@@ -1831,12 +1852,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="B8">
-        <v>40.97142857142858</v>
+        <v>40.971428571428582</v>
       </c>
       <c r="C8">
         <v>24.4</v>
@@ -1845,7 +1866,7 @@
         <v>36.68666666666666</v>
       </c>
       <c r="E8">
-        <v>35.393</v>
+        <v>35.393000000000001</v>
       </c>
       <c r="F8">
         <v>46</v>
@@ -1926,7 +1947,7 @@
         <v>0.4</v>
       </c>
       <c r="AF8">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG8">
         <v>2</v>
@@ -1947,7 +1968,7 @@
         <v>0.5</v>
       </c>
       <c r="AM8">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AN8">
         <v>0.24</v>
@@ -1968,21 +1989,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>28.4</v>
       </c>
       <c r="B9">
-        <v>45.97142857142858</v>
+        <v>45.971428571428582</v>
       </c>
       <c r="C9">
         <v>33.6</v>
       </c>
       <c r="D9">
-        <v>46.48666666666667</v>
+        <v>46.486666666666672</v>
       </c>
       <c r="E9">
-        <v>38.563</v>
+        <v>38.563000000000002</v>
       </c>
       <c r="F9">
         <v>35</v>
@@ -2060,10 +2081,10 @@
         <v>1.4</v>
       </c>
       <c r="AE9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -2087,7 +2108,7 @@
         <v>0.6</v>
       </c>
       <c r="AN9">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO9">
         <v>0.48</v>
@@ -2105,15 +2126,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>32.6</v>
       </c>
       <c r="B10">
-        <v>44.57142857142858</v>
+        <v>44.571428571428577</v>
       </c>
       <c r="C10">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D10">
         <v>35.6</v>
@@ -2197,10 +2218,10 @@
         <v>1.4</v>
       </c>
       <c r="AE10">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF10">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG10">
         <v>2</v>
@@ -2242,12 +2263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>26.4</v>
       </c>
       <c r="B11">
-        <v>25.57142857142857</v>
+        <v>25.571428571428569</v>
       </c>
       <c r="C11">
         <v>21.6</v>
@@ -2379,21 +2400,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="B12">
-        <v>45.85714285714285</v>
+        <v>45.857142857142847</v>
       </c>
       <c r="C12">
-        <v>32.40000000000001</v>
+        <v>32.400000000000013</v>
       </c>
       <c r="D12">
-        <v>32.00000000000001</v>
+        <v>32.000000000000007</v>
       </c>
       <c r="E12">
-        <v>38.15000000000001</v>
+        <v>38.150000000000013</v>
       </c>
       <c r="F12">
         <v>37</v>
@@ -2474,7 +2495,7 @@
         <v>0.6</v>
       </c>
       <c r="AF12">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG12">
         <v>2</v>
@@ -2516,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>24.2</v>
       </c>
@@ -2653,12 +2674,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14.85714285714286</v>
+        <v>14.857142857142859</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -2745,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF14">
         <v>0.3</v>
@@ -2790,12 +2811,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>34</v>
       </c>
       <c r="B15">
-        <v>42.99999999999999</v>
+        <v>42.999999999999993</v>
       </c>
       <c r="C15">
         <v>40.4</v>
@@ -2804,7 +2825,7 @@
         <v>26.62</v>
       </c>
       <c r="E15">
-        <v>37.643</v>
+        <v>37.643000000000001</v>
       </c>
       <c r="F15">
         <v>39</v>
@@ -2912,7 +2933,7 @@
         <v>0.35</v>
       </c>
       <c r="AO15">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AP15">
         <v>0.24</v>
@@ -2927,12 +2948,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>47.2</v>
       </c>
       <c r="B16">
-        <v>50.91428571428573</v>
+        <v>50.914285714285732</v>
       </c>
       <c r="C16">
         <v>44</v>
@@ -3064,21 +3085,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="B17">
-        <v>40.91428571428571</v>
+        <v>40.914285714285711</v>
       </c>
       <c r="C17">
-        <v>38.40000000000001</v>
+        <v>38.400000000000013</v>
       </c>
       <c r="D17">
-        <v>27.55333333333333</v>
+        <v>27.553333333333331</v>
       </c>
       <c r="E17">
-        <v>36.353</v>
+        <v>36.353000000000002</v>
       </c>
       <c r="F17">
         <v>44</v>
@@ -3186,7 +3207,7 @@
         <v>0.35</v>
       </c>
       <c r="AO17">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AP17">
         <v>0.24</v>
@@ -3201,18 +3222,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>42</v>
       </c>
       <c r="B18">
-        <v>47.34285714285714</v>
+        <v>47.342857142857142</v>
       </c>
       <c r="C18">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>32.13333333333333</v>
+        <v>32.133333333333333</v>
       </c>
       <c r="E18">
         <v>38.89</v>
@@ -3338,18 +3359,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>44.2</v>
       </c>
       <c r="B19">
-        <v>45.85714285714285</v>
+        <v>45.857142857142847</v>
       </c>
       <c r="C19">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D19">
-        <v>36.93333333333334</v>
+        <v>36.933333333333337</v>
       </c>
       <c r="E19">
         <v>41.34</v>
@@ -3430,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF19">
         <v>0.7</v>
@@ -3475,21 +3496,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>41.2</v>
       </c>
       <c r="B20">
-        <v>42.48571428571429</v>
+        <v>42.485714285714288</v>
       </c>
       <c r="C20">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>33.60000000000001</v>
+        <v>33.600000000000009</v>
       </c>
       <c r="E20">
-        <v>37.21000000000001</v>
+        <v>37.210000000000008</v>
       </c>
       <c r="F20">
         <v>42</v>
@@ -3567,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF20">
         <v>0.7</v>
@@ -3612,12 +3633,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>41.14285714285715</v>
+        <v>41.142857142857153</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -3749,9 +3770,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>40.00000000000001</v>
+        <v>40.000000000000007</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -3760,7 +3781,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>23.33333333333333</v>
+        <v>23.333333333333329</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -3886,12 +3907,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>40.4</v>
       </c>
       <c r="B23">
-        <v>44.28571428571429</v>
+        <v>44.285714285714292</v>
       </c>
       <c r="C23">
         <v>29.2</v>
@@ -3900,7 +3921,7 @@
         <v>3.2</v>
       </c>
       <c r="E23">
-        <v>33.38</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="F23">
         <v>52</v>
@@ -4023,7 +4044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4046,12 +4067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>46.40000000000001</v>
+        <v>46.400000000000013</v>
       </c>
       <c r="B25">
-        <v>37.11428571428572</v>
+        <v>37.114285714285721</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -4060,7 +4081,7 @@
         <v>32.18</v>
       </c>
       <c r="E25">
-        <v>37.417</v>
+        <v>37.417000000000002</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -4162,10 +4183,10 @@
         <v>0.5</v>
       </c>
       <c r="AM25">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AN25">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO25">
         <v>0.45</v>
@@ -4183,21 +4204,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>78.2</v>
       </c>
       <c r="B26">
-        <v>54.85714285714286</v>
+        <v>54.857142857142861</v>
       </c>
       <c r="C26">
-        <v>62.59999999999999</v>
+        <v>62.599999999999987</v>
       </c>
       <c r="D26">
         <v>42.8</v>
       </c>
       <c r="E26">
-        <v>60.82000000000001</v>
+        <v>60.820000000000007</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -4275,16 +4296,16 @@
         <v>1</v>
       </c>
       <c r="AE26">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF26">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG26">
         <v>6</v>
       </c>
       <c r="AH26">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4320,21 +4341,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>36.4</v>
       </c>
       <c r="B27">
-        <v>29.71428571428572</v>
+        <v>29.714285714285719</v>
       </c>
       <c r="C27">
         <v>17.2</v>
       </c>
       <c r="D27">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E27">
-        <v>26.26000000000001</v>
+        <v>26.260000000000009</v>
       </c>
       <c r="F27">
         <v>61</v>
@@ -4457,21 +4478,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>54.8</v>
       </c>
       <c r="B28">
-        <v>44.57142857142858</v>
+        <v>44.571428571428577</v>
       </c>
       <c r="C28">
         <v>54.8</v>
       </c>
       <c r="D28">
-        <v>30.66666666666666</v>
+        <v>30.666666666666661</v>
       </c>
       <c r="E28">
-        <v>47.59999999999999</v>
+        <v>47.599999999999987</v>
       </c>
       <c r="F28">
         <v>21</v>
@@ -4594,12 +4615,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16</v>
       </c>
       <c r="B29">
-        <v>31.71428571428572</v>
+        <v>31.714285714285719</v>
       </c>
       <c r="C29">
         <v>30.4</v>
@@ -4731,21 +4752,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>48.2</v>
       </c>
       <c r="B30">
-        <v>41.85714285714285</v>
+        <v>41.857142857142847</v>
       </c>
       <c r="C30">
         <v>32</v>
       </c>
       <c r="D30">
-        <v>39.86666666666667</v>
+        <v>39.866666666666667</v>
       </c>
       <c r="E30">
-        <v>40.68000000000001</v>
+        <v>40.680000000000007</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -4823,10 +4844,10 @@
         <v>2</v>
       </c>
       <c r="AE30">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF30">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG30">
         <v>2</v>
@@ -4868,21 +4889,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>56.2</v>
       </c>
       <c r="B31">
-        <v>47.14285714285715</v>
+        <v>47.142857142857153</v>
       </c>
       <c r="C31">
         <v>44.4</v>
       </c>
       <c r="D31">
-        <v>45.73333333333333</v>
+        <v>45.733333333333327</v>
       </c>
       <c r="E31">
-        <v>48.51000000000001</v>
+        <v>48.510000000000012</v>
       </c>
       <c r="F31">
         <v>18</v>
@@ -5005,21 +5026,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>55.6</v>
       </c>
       <c r="B32">
-        <v>49.85714285714285</v>
+        <v>49.857142857142847</v>
       </c>
       <c r="C32">
         <v>34</v>
       </c>
       <c r="D32">
-        <v>17.66666666666667</v>
+        <v>17.666666666666671</v>
       </c>
       <c r="E32">
-        <v>42.49999999999999</v>
+        <v>42.499999999999993</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -5142,7 +5163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5150,10 +5171,10 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>39.59999999999999</v>
+        <v>39.599999999999987</v>
       </c>
       <c r="D33">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E33">
         <v>37.32</v>
@@ -5237,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG33">
         <v>3</v>
@@ -5279,21 +5300,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>74.80000000000001</v>
+        <v>74.800000000000011</v>
       </c>
       <c r="B34">
-        <v>50.14285714285715</v>
+        <v>50.142857142857153</v>
       </c>
       <c r="C34">
         <v>34.4</v>
       </c>
       <c r="D34">
-        <v>31.46666666666667</v>
+        <v>31.466666666666669</v>
       </c>
       <c r="E34">
-        <v>49.57000000000001</v>
+        <v>49.570000000000007</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -5323,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="O34">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P34">
         <v>1.5</v>
@@ -5371,10 +5392,10 @@
         <v>1.2</v>
       </c>
       <c r="AE34">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF34">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG34">
         <v>3</v>
@@ -5416,18 +5437,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>74.8</v>
       </c>
       <c r="B35">
-        <v>62.14285714285713</v>
+        <v>62.142857142857132</v>
       </c>
       <c r="C35">
         <v>59.2</v>
       </c>
       <c r="D35">
-        <v>56.13333333333333</v>
+        <v>56.133333333333333</v>
       </c>
       <c r="E35">
         <v>63.67</v>
@@ -5454,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5511,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AF35">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG35">
         <v>5</v>
@@ -5553,12 +5574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>43.4</v>
       </c>
       <c r="B36">
-        <v>32.85714285714285</v>
+        <v>32.857142857142847</v>
       </c>
       <c r="C36">
         <v>51.8</v>
@@ -5648,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG36">
         <v>5</v>
@@ -5690,21 +5711,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>51.60000000000001</v>
+        <v>51.600000000000009</v>
       </c>
       <c r="B37">
-        <v>31.28571428571428</v>
+        <v>31.285714285714281</v>
       </c>
       <c r="C37">
         <v>23.2</v>
       </c>
       <c r="D37">
-        <v>36.00000000000001</v>
+        <v>36.000000000000007</v>
       </c>
       <c r="E37">
-        <v>35.05</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="F37">
         <v>49</v>
@@ -5782,7 +5803,7 @@
         <v>0.2</v>
       </c>
       <c r="AE37">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF37">
         <v>0.2</v>
@@ -5827,18 +5848,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>60.4</v>
       </c>
       <c r="B38">
-        <v>45.28571428571429</v>
+        <v>45.285714285714292</v>
       </c>
       <c r="C38">
         <v>52.4</v>
       </c>
       <c r="D38">
-        <v>53.33333333333334</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="E38">
         <v>52.05</v>
@@ -5922,13 +5943,13 @@
         <v>0.5</v>
       </c>
       <c r="AF38">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG38">
         <v>6</v>
       </c>
       <c r="AH38">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI38">
         <v>1</v>
@@ -5964,12 +5985,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>43.2</v>
       </c>
       <c r="B39">
-        <v>34.77142857142857</v>
+        <v>34.771428571428572</v>
       </c>
       <c r="C39">
         <v>46.8</v>
@@ -5978,7 +5999,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="E39">
-        <v>36.87</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="F39">
         <v>43</v>
@@ -6101,21 +6122,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>58.7</v>
       </c>
       <c r="B40">
-        <v>56.57142857142857</v>
+        <v>56.571428571428569</v>
       </c>
       <c r="C40">
         <v>46.6</v>
       </c>
       <c r="D40">
-        <v>68.59999999999999</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E40">
-        <v>56.415</v>
+        <v>56.414999999999999</v>
       </c>
       <c r="F40">
         <v>12</v>
@@ -6154,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="R40">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="S40">
         <v>1.4</v>
@@ -6193,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF40">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG40">
         <v>4</v>
@@ -6234,16 +6255,16 @@
       <c r="AR40">
         <v>3.5</v>
       </c>
-      <c r="AS40">
-        <v>0</v>
+      <c r="AS40" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>38.00000000000001</v>
+        <v>38.000000000000007</v>
       </c>
       <c r="B41">
-        <v>40.28571428571429</v>
+        <v>40.285714285714292</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -6252,7 +6273,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E41">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F41">
         <v>31</v>
@@ -6330,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF41">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG41">
         <v>3</v>
@@ -6375,21 +6396,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>32.488</v>
       </c>
       <c r="B42">
-        <v>34.42857142857144</v>
+        <v>34.428571428571438</v>
       </c>
       <c r="C42">
         <v>46</v>
       </c>
       <c r="D42">
-        <v>50.06666666666668</v>
+        <v>50.066666666666677</v>
       </c>
       <c r="E42">
-        <v>39.182</v>
+        <v>39.182000000000002</v>
       </c>
       <c r="F42">
         <v>32</v>
@@ -6467,7 +6488,7 @@
         <v>0.9</v>
       </c>
       <c r="AE42">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -6512,7 +6533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>59.2</v>
       </c>
@@ -6526,7 +6547,7 @@
         <v>35.20000000000001</v>
       </c>
       <c r="E43">
-        <v>55.43000000000001</v>
+        <v>55.430000000000007</v>
       </c>
       <c r="F43">
         <v>13</v>
@@ -6607,7 +6628,7 @@
         <v>0.3</v>
       </c>
       <c r="AF43">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG43">
         <v>5.5</v>
@@ -6649,21 +6670,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>63</v>
       </c>
       <c r="B44">
-        <v>37.71428571428572</v>
+        <v>37.714285714285722</v>
       </c>
       <c r="C44">
         <v>25.2</v>
       </c>
       <c r="D44">
-        <v>19.86666666666667</v>
+        <v>19.866666666666671</v>
       </c>
       <c r="E44">
-        <v>38.23</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="F44">
         <v>36</v>
@@ -6744,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG44">
         <v>1.5</v>
@@ -6786,21 +6807,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>41.2</v>
       </c>
       <c r="B45">
-        <v>30.71428571428571</v>
+        <v>30.714285714285712</v>
       </c>
       <c r="C45">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D45">
         <v>20.93333333333333</v>
       </c>
       <c r="E45">
-        <v>32.88999999999999</v>
+        <v>32.889999999999993</v>
       </c>
       <c r="F45">
         <v>53</v>
@@ -6824,13 +6845,13 @@
         <v>0.5</v>
       </c>
       <c r="M45">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N45">
         <v>1.5</v>
       </c>
       <c r="O45">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P45">
         <v>0.6</v>
@@ -6923,7 +6944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6946,12 +6967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>74.39999999999999</v>
+        <v>74.399999999999991</v>
       </c>
       <c r="B47">
-        <v>66.91428571428571</v>
+        <v>66.914285714285711</v>
       </c>
       <c r="C47">
         <v>86</v>
@@ -6960,7 +6981,7 @@
         <v>49.68666666666666</v>
       </c>
       <c r="E47">
-        <v>70.973</v>
+        <v>70.972999999999999</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -7047,10 +7068,10 @@
         <v>8</v>
       </c>
       <c r="AH47">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI47">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -7065,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -7083,9 +7104,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -7094,7 +7115,7 @@
         <v>68.8</v>
       </c>
       <c r="D48">
-        <v>40.66666666666666</v>
+        <v>40.666666666666657</v>
       </c>
       <c r="E48">
         <v>62.3</v>
@@ -7175,16 +7196,16 @@
         <v>1.4</v>
       </c>
       <c r="AE48">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF48">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG48">
         <v>6</v>
       </c>
       <c r="AH48">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI48">
         <v>0.5</v>
@@ -7220,18 +7241,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B49">
-        <v>34.42857142857143</v>
+        <v>34.428571428571431</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49">
-        <v>45.46666666666667</v>
+        <v>45.466666666666669</v>
       </c>
       <c r="E49">
         <v>41.67</v>
@@ -7312,10 +7333,10 @@
         <v>0.7</v>
       </c>
       <c r="AE49">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF49">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG49">
         <v>4</v>
@@ -7357,21 +7378,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>52.8</v>
       </c>
       <c r="B50">
-        <v>46.35714285714285</v>
+        <v>46.357142857142847</v>
       </c>
       <c r="C50">
         <v>58</v>
       </c>
       <c r="D50">
-        <v>56.13333333333333</v>
+        <v>56.133333333333333</v>
       </c>
       <c r="E50">
-        <v>52.345</v>
+        <v>52.344999999999999</v>
       </c>
       <c r="F50">
         <v>15</v>
@@ -7410,7 +7431,7 @@
         <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S50">
         <v>2.8</v>
@@ -7449,19 +7470,19 @@
         <v>2</v>
       </c>
       <c r="AE50">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF50">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AG50">
         <v>5</v>
       </c>
       <c r="AH50">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI50">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -7494,18 +7515,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>25.2</v>
       </c>
       <c r="B51">
-        <v>40.77142857142858</v>
+        <v>40.771428571428579</v>
       </c>
       <c r="C51">
         <v>44</v>
       </c>
       <c r="D51">
-        <v>22.46666666666667</v>
+        <v>22.466666666666669</v>
       </c>
       <c r="E51">
         <v>34.94</v>
@@ -7538,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -7586,10 +7607,10 @@
         <v>0.75</v>
       </c>
       <c r="AE51">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF51">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG51">
         <v>5</v>
@@ -7631,21 +7652,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>60.8</v>
       </c>
       <c r="B52">
-        <v>44.62857142857143</v>
+        <v>44.628571428571433</v>
       </c>
       <c r="C52">
         <v>74.59999999999998</v>
       </c>
       <c r="D52">
-        <v>68.68666666666668</v>
+        <v>68.686666666666682</v>
       </c>
       <c r="E52">
-        <v>59.773</v>
+        <v>59.773000000000003</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -7723,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF52">
         <v>0.27</v>
@@ -7735,7 +7756,7 @@
         <v>1.4</v>
       </c>
       <c r="AI52">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -7768,21 +7789,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="B53">
-        <v>47.34285714285714</v>
+        <v>47.342857142857142</v>
       </c>
       <c r="C53">
         <v>51.8</v>
       </c>
       <c r="D53">
-        <v>30.66666666666666</v>
+        <v>30.666666666666661</v>
       </c>
       <c r="E53">
-        <v>43.82000000000001</v>
+        <v>43.820000000000007</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -7857,10 +7878,10 @@
         <v>3</v>
       </c>
       <c r="AD53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE53">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF53">
         <v>0.6</v>
@@ -7869,10 +7890,10 @@
         <v>5</v>
       </c>
       <c r="AH53">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI53">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AJ53">
         <v>0</v>
@@ -7905,12 +7926,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>30.4</v>
       </c>
       <c r="B54">
-        <v>30.57142857142857</v>
+        <v>30.571428571428569</v>
       </c>
       <c r="C54">
         <v>27.4</v>
@@ -7997,10 +8018,10 @@
         <v>0.7</v>
       </c>
       <c r="AE54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG54">
         <v>2</v>
@@ -8042,21 +8063,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>46.8</v>
       </c>
       <c r="B55">
-        <v>46.57142857142857</v>
+        <v>46.571428571428569</v>
       </c>
       <c r="C55">
         <v>46.8</v>
       </c>
       <c r="D55">
-        <v>57.46666666666666</v>
+        <v>57.466666666666661</v>
       </c>
       <c r="E55">
-        <v>48.32000000000001</v>
+        <v>48.320000000000007</v>
       </c>
       <c r="F55">
         <v>19</v>
@@ -8179,21 +8200,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="B56">
-        <v>71.57142857142856</v>
+        <v>71.571428571428555</v>
       </c>
       <c r="C56">
         <v>62.4</v>
       </c>
       <c r="D56">
-        <v>63.26666666666667</v>
+        <v>63.266666666666673</v>
       </c>
       <c r="E56">
-        <v>66.28999999999999</v>
+        <v>66.289999999999992</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -8235,7 +8256,7 @@
         <v>1.5</v>
       </c>
       <c r="S56">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -8289,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AK56">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL56">
         <v>1</v>
@@ -8316,7 +8337,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>60.4</v>
       </c>
@@ -8330,7 +8351,7 @@
         <v>39.64</v>
       </c>
       <c r="E57">
-        <v>55.04600000000001</v>
+        <v>55.046000000000006</v>
       </c>
       <c r="F57">
         <v>14</v>
@@ -8369,7 +8390,7 @@
         <v>1.5</v>
       </c>
       <c r="R57">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S57">
         <v>1.4</v>
@@ -8411,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="AF57">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG57">
         <v>4</v>
@@ -8435,7 +8456,7 @@
         <v>0.45</v>
       </c>
       <c r="AN57">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="AO57">
         <v>0.96</v>
@@ -8453,21 +8474,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58.8</v>
       </c>
       <c r="B58">
-        <v>63.25714285714285</v>
+        <v>63.257142857142853</v>
       </c>
       <c r="C58">
         <v>60.6</v>
       </c>
       <c r="D58">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="E58">
-        <v>61.65000000000001</v>
+        <v>61.650000000000013</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -8554,10 +8575,10 @@
         <v>7</v>
       </c>
       <c r="AH58">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI58">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AJ58">
         <v>0</v>
@@ -8590,18 +8611,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>53.2</v>
       </c>
       <c r="B59">
-        <v>40.97142857142857</v>
+        <v>40.971428571428568</v>
       </c>
       <c r="C59">
         <v>56.8</v>
       </c>
       <c r="D59">
-        <v>25.66666666666667</v>
+        <v>25.666666666666671</v>
       </c>
       <c r="E59">
         <v>45.69</v>
@@ -8727,21 +8748,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>80.8</v>
       </c>
       <c r="B60">
-        <v>80.85714285714286</v>
+        <v>80.857142857142861</v>
       </c>
       <c r="C60">
-        <v>72.80000000000001</v>
+        <v>72.800000000000011</v>
       </c>
       <c r="D60">
-        <v>66.53333333333333</v>
+        <v>66.533333333333331</v>
       </c>
       <c r="E60">
-        <v>76.68000000000001</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -8801,7 +8822,7 @@
         <v>1.3</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z60">
         <v>1.2</v>
@@ -8864,12 +8885,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>38.88</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B61">
-        <v>54.42857142857142</v>
+        <v>54.428571428571423</v>
       </c>
       <c r="C61">
         <v>23.4</v>
@@ -8959,7 +8980,7 @@
         <v>0.7</v>
       </c>
       <c r="AF61">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG61">
         <v>2</v>
@@ -9001,21 +9022,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>28.2</v>
       </c>
       <c r="B62">
-        <v>28.82857142857143</v>
+        <v>28.828571428571429</v>
       </c>
       <c r="C62">
         <v>48.8</v>
       </c>
       <c r="D62">
-        <v>38.52</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="E62">
-        <v>35.118</v>
+        <v>35.118000000000002</v>
       </c>
       <c r="F62">
         <v>48</v>
@@ -9096,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG62">
         <v>4</v>
@@ -9117,10 +9138,10 @@
         <v>0.4</v>
       </c>
       <c r="AM62">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AN62">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AO62">
         <v>0.6</v>
@@ -9138,21 +9159,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>22.4</v>
       </c>
       <c r="B63">
-        <v>31.28571428571428</v>
+        <v>31.285714285714281</v>
       </c>
       <c r="C63">
         <v>25.6</v>
       </c>
       <c r="D63">
-        <v>29.42666666666667</v>
+        <v>29.426666666666669</v>
       </c>
       <c r="E63">
-        <v>27.364</v>
+        <v>27.364000000000001</v>
       </c>
       <c r="F63">
         <v>59</v>
@@ -9254,7 +9275,7 @@
         <v>0.6</v>
       </c>
       <c r="AM63">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AN63">
         <v>0.45</v>
@@ -9275,21 +9296,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>24.8</v>
       </c>
       <c r="B64">
-        <v>47.57142857142858</v>
+        <v>47.571428571428577</v>
       </c>
       <c r="C64">
         <v>27.2</v>
       </c>
       <c r="D64">
-        <v>42.32666666666667</v>
+        <v>42.326666666666668</v>
       </c>
       <c r="E64">
-        <v>35.999</v>
+        <v>35.999000000000002</v>
       </c>
       <c r="F64">
         <v>45</v>
@@ -9397,7 +9418,7 @@
         <v>0.45</v>
       </c>
       <c r="AO64">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -9412,18 +9433,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65">
-        <v>67.77142857142857</v>
+        <v>67.771428571428572</v>
       </c>
       <c r="C65">
         <v>70</v>
       </c>
       <c r="D65">
-        <v>65.53333333333335</v>
+        <v>65.533333333333346</v>
       </c>
       <c r="E65">
         <v>66.05</v>
@@ -9549,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -9572,12 +9593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>26.8</v>
       </c>
       <c r="B67">
-        <v>30.34285714285714</v>
+        <v>30.342857142857142</v>
       </c>
       <c r="C67">
         <v>23.6</v>
@@ -9709,7 +9730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>57.2</v>
       </c>
@@ -9720,10 +9741,10 @@
         <v>62</v>
       </c>
       <c r="D68">
-        <v>51.90666666666666</v>
+        <v>51.906666666666659</v>
       </c>
       <c r="E68">
-        <v>63.836</v>
+        <v>63.835999999999999</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -9810,10 +9831,10 @@
         <v>6</v>
       </c>
       <c r="AH68">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI68">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -9828,10 +9849,10 @@
         <v>0.2</v>
       </c>
       <c r="AN68">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AO68">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AP68">
         <v>0.24</v>
@@ -9846,21 +9867,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>38.76000000000001</v>
+        <v>38.760000000000012</v>
       </c>
       <c r="B69">
-        <v>31.85714285714286</v>
+        <v>31.857142857142861</v>
       </c>
       <c r="C69">
-        <v>32.59999999999999</v>
+        <v>32.599999999999987</v>
       </c>
       <c r="D69">
-        <v>33.53333333333333</v>
+        <v>33.533333333333331</v>
       </c>
       <c r="E69">
-        <v>34.02</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="F69">
         <v>51</v>
@@ -9941,7 +9962,7 @@
         <v>0.5</v>
       </c>
       <c r="AF69">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG69">
         <v>2</v>
@@ -9983,18 +10004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>47.8</v>
       </c>
       <c r="B70">
-        <v>47.42857142857142</v>
+        <v>47.428571428571423</v>
       </c>
       <c r="C70">
         <v>60.2</v>
       </c>
       <c r="D70">
-        <v>30.13333333333333</v>
+        <v>30.133333333333329</v>
       </c>
       <c r="E70">
         <v>48.12</v>
@@ -10084,10 +10105,10 @@
         <v>6</v>
       </c>
       <c r="AH70">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI70">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -10120,18 +10141,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>36</v>
       </c>
       <c r="B71">
-        <v>18.28571428571429</v>
+        <v>18.285714285714288</v>
       </c>
       <c r="C71">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>16.53333333333334</v>
+        <v>16.533333333333339</v>
       </c>
       <c r="E71">
         <v>20.88</v>
@@ -10257,7 +10278,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>77.2</v>
       </c>
@@ -10268,7 +10289,7 @@
         <v>62.4</v>
       </c>
       <c r="D72">
-        <v>59.46666666666667</v>
+        <v>59.466666666666669</v>
       </c>
       <c r="E72">
         <v>65.17</v>

--- a/files/resultados/2021/resultados_2021.xlsx
+++ b/files/resultados/2021/resultados_2021.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622A504-B2FE-4FD8-AA13-7CFE63CC4F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>res_c1</t>
   </si>
@@ -515,16 +509,13 @@
   </si>
   <si>
     <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
-  </si>
-  <si>
-    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,21 +578,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -639,7 +622,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -673,7 +656,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -708,10 +690,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,16 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC28" workbookViewId="0">
-      <selection activeCell="AQ37" sqref="AQ37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1044,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F2">
         <v>68</v>
@@ -1167,12 +1146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45">
       <c r="A3">
-        <v>42.400000000000013</v>
+        <v>42.40000000000001</v>
       </c>
       <c r="B3">
-        <v>32.142857142857139</v>
+        <v>32.14285714285714</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -1283,7 +1262,7 @@
         <v>0.5</v>
       </c>
       <c r="AM3">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AN3">
         <v>0.7</v>
@@ -1304,21 +1283,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45">
       <c r="A4">
-        <v>39.880000000000003</v>
+        <v>39.88</v>
       </c>
       <c r="B4">
-        <v>39.285714285714278</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="C4">
         <v>17.8</v>
       </c>
       <c r="D4">
-        <v>27.153333333333329</v>
+        <v>27.15333333333333</v>
       </c>
       <c r="E4">
-        <v>32.242999999999988</v>
+        <v>32.24299999999999</v>
       </c>
       <c r="F4">
         <v>54</v>
@@ -1396,10 +1375,10 @@
         <v>1.4</v>
       </c>
       <c r="AE4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1423,7 +1402,7 @@
         <v>0.3</v>
       </c>
       <c r="AN4">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO4">
         <v>0.3</v>
@@ -1441,21 +1420,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>46.88</v>
       </c>
       <c r="B5">
-        <v>36.114285714285707</v>
+        <v>36.11428571428571</v>
       </c>
       <c r="C5">
         <v>26.2</v>
       </c>
       <c r="D5">
-        <v>29.266666666666669</v>
+        <v>29.26666666666667</v>
       </c>
       <c r="E5">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="F5">
         <v>47</v>
@@ -1542,7 +1521,7 @@
         <v>1.5</v>
       </c>
       <c r="AH5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI5">
         <v>0.5</v>
@@ -1578,21 +1557,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>23.2</v>
       </c>
       <c r="B6">
-        <v>30.571428571428569</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="C6">
         <v>13.2</v>
       </c>
       <c r="D6">
-        <v>41.213333333333338</v>
+        <v>41.21333333333334</v>
       </c>
       <c r="E6">
-        <v>25.981999999999999</v>
+        <v>25.982</v>
       </c>
       <c r="F6">
         <v>62</v>
@@ -1694,16 +1673,16 @@
         <v>0.5</v>
       </c>
       <c r="AM6">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AN6">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO6">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="AP6">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="AQ6">
         <v>0.24</v>
@@ -1715,12 +1694,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>17.142857142857139</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1810,7 +1789,7 @@
         <v>0.4</v>
       </c>
       <c r="AF7">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1834,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO7">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AP7">
         <v>0.24</v>
@@ -1852,12 +1831,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45">
       <c r="A8">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="B8">
-        <v>40.971428571428582</v>
+        <v>40.97142857142858</v>
       </c>
       <c r="C8">
         <v>24.4</v>
@@ -1866,7 +1845,7 @@
         <v>36.68666666666666</v>
       </c>
       <c r="E8">
-        <v>35.393000000000001</v>
+        <v>35.393</v>
       </c>
       <c r="F8">
         <v>46</v>
@@ -1947,7 +1926,7 @@
         <v>0.4</v>
       </c>
       <c r="AF8">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG8">
         <v>2</v>
@@ -1968,7 +1947,7 @@
         <v>0.5</v>
       </c>
       <c r="AM8">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AN8">
         <v>0.24</v>
@@ -1989,21 +1968,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>28.4</v>
       </c>
       <c r="B9">
-        <v>45.971428571428582</v>
+        <v>45.97142857142858</v>
       </c>
       <c r="C9">
         <v>33.6</v>
       </c>
       <c r="D9">
-        <v>46.486666666666672</v>
+        <v>46.48666666666667</v>
       </c>
       <c r="E9">
-        <v>38.563000000000002</v>
+        <v>38.563</v>
       </c>
       <c r="F9">
         <v>35</v>
@@ -2081,10 +2060,10 @@
         <v>1.4</v>
       </c>
       <c r="AE9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -2108,7 +2087,7 @@
         <v>0.6</v>
       </c>
       <c r="AN9">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO9">
         <v>0.48</v>
@@ -2126,15 +2105,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>32.6</v>
       </c>
       <c r="B10">
-        <v>44.571428571428577</v>
+        <v>44.57142857142858</v>
       </c>
       <c r="C10">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="D10">
         <v>35.6</v>
@@ -2218,10 +2197,10 @@
         <v>1.4</v>
       </c>
       <c r="AE10">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF10">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG10">
         <v>2</v>
@@ -2263,12 +2242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>26.4</v>
       </c>
       <c r="B11">
-        <v>25.571428571428569</v>
+        <v>25.57142857142857</v>
       </c>
       <c r="C11">
         <v>21.6</v>
@@ -2400,21 +2379,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45">
       <c r="A12">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="B12">
-        <v>45.857142857142847</v>
+        <v>45.85714285714285</v>
       </c>
       <c r="C12">
-        <v>32.400000000000013</v>
+        <v>32.40000000000001</v>
       </c>
       <c r="D12">
-        <v>32.000000000000007</v>
+        <v>32.00000000000001</v>
       </c>
       <c r="E12">
-        <v>38.150000000000013</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="F12">
         <v>37</v>
@@ -2495,7 +2474,7 @@
         <v>0.6</v>
       </c>
       <c r="AF12">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG12">
         <v>2</v>
@@ -2537,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>24.2</v>
       </c>
@@ -2674,12 +2653,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14.857142857142859</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -2766,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AF14">
         <v>0.3</v>
@@ -2811,12 +2790,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>34</v>
       </c>
       <c r="B15">
-        <v>42.999999999999993</v>
+        <v>42.99999999999999</v>
       </c>
       <c r="C15">
         <v>40.4</v>
@@ -2825,7 +2804,7 @@
         <v>26.62</v>
       </c>
       <c r="E15">
-        <v>37.643000000000001</v>
+        <v>37.643</v>
       </c>
       <c r="F15">
         <v>39</v>
@@ -2933,7 +2912,7 @@
         <v>0.35</v>
       </c>
       <c r="AO15">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="AP15">
         <v>0.24</v>
@@ -2948,12 +2927,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>47.2</v>
       </c>
       <c r="B16">
-        <v>50.914285714285732</v>
+        <v>50.91428571428573</v>
       </c>
       <c r="C16">
         <v>44</v>
@@ -3085,21 +3064,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45">
       <c r="A17">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="B17">
-        <v>40.914285714285711</v>
+        <v>40.91428571428571</v>
       </c>
       <c r="C17">
-        <v>38.400000000000013</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="D17">
-        <v>27.553333333333331</v>
+        <v>27.55333333333333</v>
       </c>
       <c r="E17">
-        <v>36.353000000000002</v>
+        <v>36.353</v>
       </c>
       <c r="F17">
         <v>44</v>
@@ -3207,7 +3186,7 @@
         <v>0.35</v>
       </c>
       <c r="AO17">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="AP17">
         <v>0.24</v>
@@ -3222,18 +3201,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45">
       <c r="A18">
         <v>42</v>
       </c>
       <c r="B18">
-        <v>47.342857142857142</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="C18">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>32.133333333333333</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="E18">
         <v>38.89</v>
@@ -3359,18 +3338,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45">
       <c r="A19">
         <v>44.2</v>
       </c>
       <c r="B19">
-        <v>45.857142857142847</v>
+        <v>45.85714285714285</v>
       </c>
       <c r="C19">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="D19">
-        <v>36.933333333333337</v>
+        <v>36.93333333333334</v>
       </c>
       <c r="E19">
         <v>41.34</v>
@@ -3451,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF19">
         <v>0.7</v>
@@ -3496,21 +3475,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>41.2</v>
       </c>
       <c r="B20">
-        <v>42.485714285714288</v>
+        <v>42.48571428571429</v>
       </c>
       <c r="C20">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>33.600000000000009</v>
+        <v>33.60000000000001</v>
       </c>
       <c r="E20">
-        <v>37.210000000000008</v>
+        <v>37.21000000000001</v>
       </c>
       <c r="F20">
         <v>42</v>
@@ -3588,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF20">
         <v>0.7</v>
@@ -3633,12 +3612,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45">
       <c r="A21">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>41.142857142857153</v>
+        <v>41.14285714285715</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -3770,9 +3749,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45">
       <c r="A22">
-        <v>40.000000000000007</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -3781,7 +3760,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>23.333333333333329</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -3907,12 +3886,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45">
       <c r="A23">
         <v>40.4</v>
       </c>
       <c r="B23">
-        <v>44.285714285714292</v>
+        <v>44.28571428571429</v>
       </c>
       <c r="C23">
         <v>29.2</v>
@@ -3921,7 +3900,7 @@
         <v>3.2</v>
       </c>
       <c r="E23">
-        <v>33.380000000000003</v>
+        <v>33.38</v>
       </c>
       <c r="F23">
         <v>52</v>
@@ -4044,7 +4023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4067,12 +4046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45">
       <c r="A25">
-        <v>46.400000000000013</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="B25">
-        <v>37.114285714285721</v>
+        <v>37.11428571428572</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -4081,7 +4060,7 @@
         <v>32.18</v>
       </c>
       <c r="E25">
-        <v>37.417000000000002</v>
+        <v>37.417</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -4183,10 +4162,10 @@
         <v>0.5</v>
       </c>
       <c r="AM25">
-        <v>0.45400000000000001</v>
+        <v>0.454</v>
       </c>
       <c r="AN25">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO25">
         <v>0.45</v>
@@ -4204,21 +4183,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45">
       <c r="A26">
         <v>78.2</v>
       </c>
       <c r="B26">
-        <v>54.857142857142861</v>
+        <v>54.85714285714286</v>
       </c>
       <c r="C26">
-        <v>62.599999999999987</v>
+        <v>62.59999999999999</v>
       </c>
       <c r="D26">
         <v>42.8</v>
       </c>
       <c r="E26">
-        <v>60.820000000000007</v>
+        <v>60.82000000000001</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -4296,16 +4275,16 @@
         <v>1</v>
       </c>
       <c r="AE26">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF26">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG26">
         <v>6</v>
       </c>
       <c r="AH26">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4341,21 +4320,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45">
       <c r="A27">
         <v>36.4</v>
       </c>
       <c r="B27">
-        <v>29.714285714285719</v>
+        <v>29.71428571428572</v>
       </c>
       <c r="C27">
         <v>17.2</v>
       </c>
       <c r="D27">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="E27">
-        <v>26.260000000000009</v>
+        <v>26.26000000000001</v>
       </c>
       <c r="F27">
         <v>61</v>
@@ -4478,21 +4457,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45">
       <c r="A28">
         <v>54.8</v>
       </c>
       <c r="B28">
-        <v>44.571428571428577</v>
+        <v>44.57142857142858</v>
       </c>
       <c r="C28">
         <v>54.8</v>
       </c>
       <c r="D28">
-        <v>30.666666666666661</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="E28">
-        <v>47.599999999999987</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="F28">
         <v>21</v>
@@ -4615,12 +4594,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45">
       <c r="A29">
         <v>16</v>
       </c>
       <c r="B29">
-        <v>31.714285714285719</v>
+        <v>31.71428571428572</v>
       </c>
       <c r="C29">
         <v>30.4</v>
@@ -4752,21 +4731,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45">
       <c r="A30">
         <v>48.2</v>
       </c>
       <c r="B30">
-        <v>41.857142857142847</v>
+        <v>41.85714285714285</v>
       </c>
       <c r="C30">
         <v>32</v>
       </c>
       <c r="D30">
-        <v>39.866666666666667</v>
+        <v>39.86666666666667</v>
       </c>
       <c r="E30">
-        <v>40.680000000000007</v>
+        <v>40.68000000000001</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -4844,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="AE30">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF30">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG30">
         <v>2</v>
@@ -4889,21 +4868,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45">
       <c r="A31">
         <v>56.2</v>
       </c>
       <c r="B31">
-        <v>47.142857142857153</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="C31">
         <v>44.4</v>
       </c>
       <c r="D31">
-        <v>45.733333333333327</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E31">
-        <v>48.510000000000012</v>
+        <v>48.51000000000001</v>
       </c>
       <c r="F31">
         <v>18</v>
@@ -5026,21 +5005,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45">
       <c r="A32">
         <v>55.6</v>
       </c>
       <c r="B32">
-        <v>49.857142857142847</v>
+        <v>49.85714285714285</v>
       </c>
       <c r="C32">
         <v>34</v>
       </c>
       <c r="D32">
-        <v>17.666666666666671</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="E32">
-        <v>42.499999999999993</v>
+        <v>42.49999999999999</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -5163,7 +5142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5171,10 +5150,10 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>39.599999999999987</v>
+        <v>39.59999999999999</v>
       </c>
       <c r="D33">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="E33">
         <v>37.32</v>
@@ -5258,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG33">
         <v>3</v>
@@ -5300,21 +5279,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45">
       <c r="A34">
-        <v>74.800000000000011</v>
+        <v>74.80000000000001</v>
       </c>
       <c r="B34">
-        <v>50.142857142857153</v>
+        <v>50.14285714285715</v>
       </c>
       <c r="C34">
         <v>34.4</v>
       </c>
       <c r="D34">
-        <v>31.466666666666669</v>
+        <v>31.46666666666667</v>
       </c>
       <c r="E34">
-        <v>49.570000000000007</v>
+        <v>49.57000000000001</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -5344,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="O34">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P34">
         <v>1.5</v>
@@ -5392,10 +5371,10 @@
         <v>1.2</v>
       </c>
       <c r="AE34">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF34">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG34">
         <v>3</v>
@@ -5437,18 +5416,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>74.8</v>
       </c>
       <c r="B35">
-        <v>62.142857142857132</v>
+        <v>62.14285714285713</v>
       </c>
       <c r="C35">
         <v>59.2</v>
       </c>
       <c r="D35">
-        <v>56.133333333333333</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="E35">
         <v>63.67</v>
@@ -5475,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5532,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AF35">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG35">
         <v>5</v>
@@ -5574,12 +5553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>43.4</v>
       </c>
       <c r="B36">
-        <v>32.857142857142847</v>
+        <v>32.85714285714285</v>
       </c>
       <c r="C36">
         <v>51.8</v>
@@ -5669,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG36">
         <v>5</v>
@@ -5711,21 +5690,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45">
       <c r="A37">
-        <v>51.600000000000009</v>
+        <v>51.60000000000001</v>
       </c>
       <c r="B37">
-        <v>31.285714285714281</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="C37">
         <v>23.2</v>
       </c>
       <c r="D37">
-        <v>36.000000000000007</v>
+        <v>36.00000000000001</v>
       </c>
       <c r="E37">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="F37">
         <v>49</v>
@@ -5803,7 +5782,7 @@
         <v>0.2</v>
       </c>
       <c r="AE37">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF37">
         <v>0.2</v>
@@ -5848,18 +5827,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>60.4</v>
       </c>
       <c r="B38">
-        <v>45.285714285714292</v>
+        <v>45.28571428571429</v>
       </c>
       <c r="C38">
         <v>52.4</v>
       </c>
       <c r="D38">
-        <v>53.333333333333343</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="E38">
         <v>52.05</v>
@@ -5943,13 +5922,13 @@
         <v>0.5</v>
       </c>
       <c r="AF38">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG38">
         <v>6</v>
       </c>
       <c r="AH38">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI38">
         <v>1</v>
@@ -5985,12 +5964,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>43.2</v>
       </c>
       <c r="B39">
-        <v>34.771428571428572</v>
+        <v>34.77142857142857</v>
       </c>
       <c r="C39">
         <v>46.8</v>
@@ -5999,7 +5978,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="E39">
-        <v>36.869999999999997</v>
+        <v>36.87</v>
       </c>
       <c r="F39">
         <v>43</v>
@@ -6122,21 +6101,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>58.7</v>
       </c>
       <c r="B40">
-        <v>56.571428571428569</v>
+        <v>56.57142857142857</v>
       </c>
       <c r="C40">
         <v>46.6</v>
       </c>
       <c r="D40">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E40">
-        <v>56.414999999999999</v>
+        <v>56.415</v>
       </c>
       <c r="F40">
         <v>12</v>
@@ -6175,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="R40">
-        <v>0.52500000000000002</v>
+        <v>0.525</v>
       </c>
       <c r="S40">
         <v>1.4</v>
@@ -6214,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF40">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG40">
         <v>4</v>
@@ -6255,16 +6234,16 @@
       <c r="AR40">
         <v>3.5</v>
       </c>
-      <c r="AS40" t="s">
-        <v>165</v>
+      <c r="AS40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45">
       <c r="A41">
-        <v>38.000000000000007</v>
+        <v>38.00000000000001</v>
       </c>
       <c r="B41">
-        <v>40.285714285714292</v>
+        <v>40.28571428571429</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -6273,7 +6252,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="E41">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="F41">
         <v>31</v>
@@ -6351,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF41">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG41">
         <v>3</v>
@@ -6396,21 +6375,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45">
       <c r="A42">
         <v>32.488</v>
       </c>
       <c r="B42">
-        <v>34.428571428571438</v>
+        <v>34.42857142857144</v>
       </c>
       <c r="C42">
         <v>46</v>
       </c>
       <c r="D42">
-        <v>50.066666666666677</v>
+        <v>50.06666666666668</v>
       </c>
       <c r="E42">
-        <v>39.182000000000002</v>
+        <v>39.182</v>
       </c>
       <c r="F42">
         <v>32</v>
@@ -6488,7 +6467,7 @@
         <v>0.9</v>
       </c>
       <c r="AE42">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -6533,7 +6512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45">
       <c r="A43">
         <v>59.2</v>
       </c>
@@ -6547,7 +6526,7 @@
         <v>35.20000000000001</v>
       </c>
       <c r="E43">
-        <v>55.430000000000007</v>
+        <v>55.43000000000001</v>
       </c>
       <c r="F43">
         <v>13</v>
@@ -6628,7 +6607,7 @@
         <v>0.3</v>
       </c>
       <c r="AF43">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG43">
         <v>5.5</v>
@@ -6670,21 +6649,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45">
       <c r="A44">
         <v>63</v>
       </c>
       <c r="B44">
-        <v>37.714285714285722</v>
+        <v>37.71428571428572</v>
       </c>
       <c r="C44">
         <v>25.2</v>
       </c>
       <c r="D44">
-        <v>19.866666666666671</v>
+        <v>19.86666666666667</v>
       </c>
       <c r="E44">
-        <v>38.229999999999997</v>
+        <v>38.23</v>
       </c>
       <c r="F44">
         <v>36</v>
@@ -6765,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG44">
         <v>1.5</v>
@@ -6807,21 +6786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45">
       <c r="A45">
         <v>41.2</v>
       </c>
       <c r="B45">
-        <v>30.714285714285712</v>
+        <v>30.71428571428571</v>
       </c>
       <c r="C45">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="D45">
         <v>20.93333333333333</v>
       </c>
       <c r="E45">
-        <v>32.889999999999993</v>
+        <v>32.88999999999999</v>
       </c>
       <c r="F45">
         <v>53</v>
@@ -6845,13 +6824,13 @@
         <v>0.5</v>
       </c>
       <c r="M45">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="N45">
         <v>1.5</v>
       </c>
       <c r="O45">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P45">
         <v>0.6</v>
@@ -6944,7 +6923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6967,12 +6946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45">
       <c r="A47">
-        <v>74.399999999999991</v>
+        <v>74.39999999999999</v>
       </c>
       <c r="B47">
-        <v>66.914285714285711</v>
+        <v>66.91428571428571</v>
       </c>
       <c r="C47">
         <v>86</v>
@@ -6981,7 +6960,7 @@
         <v>49.68666666666666</v>
       </c>
       <c r="E47">
-        <v>70.972999999999999</v>
+        <v>70.973</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -7068,10 +7047,10 @@
         <v>8</v>
       </c>
       <c r="AH47">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI47">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -7086,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -7104,9 +7083,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45">
       <c r="A48">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -7115,7 +7094,7 @@
         <v>68.8</v>
       </c>
       <c r="D48">
-        <v>40.666666666666657</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="E48">
         <v>62.3</v>
@@ -7196,16 +7175,16 @@
         <v>1.4</v>
       </c>
       <c r="AE48">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF48">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG48">
         <v>6</v>
       </c>
       <c r="AH48">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI48">
         <v>0.5</v>
@@ -7241,18 +7220,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45">
       <c r="A49">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="B49">
-        <v>34.428571428571431</v>
+        <v>34.42857142857143</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49">
-        <v>45.466666666666669</v>
+        <v>45.46666666666667</v>
       </c>
       <c r="E49">
         <v>41.67</v>
@@ -7333,10 +7312,10 @@
         <v>0.7</v>
       </c>
       <c r="AE49">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF49">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG49">
         <v>4</v>
@@ -7378,21 +7357,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45">
       <c r="A50">
         <v>52.8</v>
       </c>
       <c r="B50">
-        <v>46.357142857142847</v>
+        <v>46.35714285714285</v>
       </c>
       <c r="C50">
         <v>58</v>
       </c>
       <c r="D50">
-        <v>56.133333333333333</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="E50">
-        <v>52.344999999999999</v>
+        <v>52.345</v>
       </c>
       <c r="F50">
         <v>15</v>
@@ -7431,7 +7410,7 @@
         <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="S50">
         <v>2.8</v>
@@ -7470,19 +7449,19 @@
         <v>2</v>
       </c>
       <c r="AE50">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF50">
-        <v>0.27500000000000002</v>
+        <v>0.275</v>
       </c>
       <c r="AG50">
         <v>5</v>
       </c>
       <c r="AH50">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI50">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -7515,18 +7494,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45">
       <c r="A51">
         <v>25.2</v>
       </c>
       <c r="B51">
-        <v>40.771428571428579</v>
+        <v>40.77142857142858</v>
       </c>
       <c r="C51">
         <v>44</v>
       </c>
       <c r="D51">
-        <v>22.466666666666669</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="E51">
         <v>34.94</v>
@@ -7559,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -7607,10 +7586,10 @@
         <v>0.75</v>
       </c>
       <c r="AE51">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF51">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG51">
         <v>5</v>
@@ -7652,21 +7631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45">
       <c r="A52">
         <v>60.8</v>
       </c>
       <c r="B52">
-        <v>44.628571428571433</v>
+        <v>44.62857142857143</v>
       </c>
       <c r="C52">
         <v>74.59999999999998</v>
       </c>
       <c r="D52">
-        <v>68.686666666666682</v>
+        <v>68.68666666666668</v>
       </c>
       <c r="E52">
-        <v>59.773000000000003</v>
+        <v>59.773</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -7744,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF52">
         <v>0.27</v>
@@ -7756,7 +7735,7 @@
         <v>1.4</v>
       </c>
       <c r="AI52">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -7789,21 +7768,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:45">
       <c r="A53">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="B53">
-        <v>47.342857142857142</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="C53">
         <v>51.8</v>
       </c>
       <c r="D53">
-        <v>30.666666666666661</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="E53">
-        <v>43.820000000000007</v>
+        <v>43.82000000000001</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -7878,10 +7857,10 @@
         <v>3</v>
       </c>
       <c r="AD53">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE53">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF53">
         <v>0.6</v>
@@ -7890,10 +7869,10 @@
         <v>5</v>
       </c>
       <c r="AH53">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AI53">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AJ53">
         <v>0</v>
@@ -7926,12 +7905,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45">
       <c r="A54">
         <v>30.4</v>
       </c>
       <c r="B54">
-        <v>30.571428571428569</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="C54">
         <v>27.4</v>
@@ -8018,10 +7997,10 @@
         <v>0.7</v>
       </c>
       <c r="AE54">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF54">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG54">
         <v>2</v>
@@ -8063,21 +8042,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45">
       <c r="A55">
         <v>46.8</v>
       </c>
       <c r="B55">
-        <v>46.571428571428569</v>
+        <v>46.57142857142857</v>
       </c>
       <c r="C55">
         <v>46.8</v>
       </c>
       <c r="D55">
-        <v>57.466666666666661</v>
+        <v>57.46666666666666</v>
       </c>
       <c r="E55">
-        <v>48.320000000000007</v>
+        <v>48.32000000000001</v>
       </c>
       <c r="F55">
         <v>19</v>
@@ -8200,21 +8179,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45">
       <c r="A56">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="B56">
-        <v>71.571428571428555</v>
+        <v>71.57142857142856</v>
       </c>
       <c r="C56">
         <v>62.4</v>
       </c>
       <c r="D56">
-        <v>63.266666666666673</v>
+        <v>63.26666666666667</v>
       </c>
       <c r="E56">
-        <v>66.289999999999992</v>
+        <v>66.28999999999999</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -8256,7 +8235,7 @@
         <v>1.5</v>
       </c>
       <c r="S56">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -8310,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="AK56">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL56">
         <v>1</v>
@@ -8337,7 +8316,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:45">
       <c r="A57">
         <v>60.4</v>
       </c>
@@ -8351,7 +8330,7 @@
         <v>39.64</v>
       </c>
       <c r="E57">
-        <v>55.046000000000006</v>
+        <v>55.04600000000001</v>
       </c>
       <c r="F57">
         <v>14</v>
@@ -8390,7 +8369,7 @@
         <v>1.5</v>
       </c>
       <c r="R57">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="S57">
         <v>1.4</v>
@@ -8432,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AF57">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG57">
         <v>4</v>
@@ -8456,7 +8435,7 @@
         <v>0.45</v>
       </c>
       <c r="AN57">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="AO57">
         <v>0.96</v>
@@ -8474,21 +8453,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:45">
       <c r="A58">
         <v>58.8</v>
       </c>
       <c r="B58">
-        <v>63.257142857142853</v>
+        <v>63.25714285714285</v>
       </c>
       <c r="C58">
         <v>60.6</v>
       </c>
       <c r="D58">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E58">
-        <v>61.650000000000013</v>
+        <v>61.65000000000001</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -8575,10 +8554,10 @@
         <v>7</v>
       </c>
       <c r="AH58">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI58">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AJ58">
         <v>0</v>
@@ -8611,18 +8590,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:45">
       <c r="A59">
         <v>53.2</v>
       </c>
       <c r="B59">
-        <v>40.971428571428568</v>
+        <v>40.97142857142857</v>
       </c>
       <c r="C59">
         <v>56.8</v>
       </c>
       <c r="D59">
-        <v>25.666666666666671</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="E59">
         <v>45.69</v>
@@ -8748,21 +8727,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:45">
       <c r="A60">
         <v>80.8</v>
       </c>
       <c r="B60">
-        <v>80.857142857142861</v>
+        <v>80.85714285714286</v>
       </c>
       <c r="C60">
-        <v>72.800000000000011</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="D60">
-        <v>66.533333333333331</v>
+        <v>66.53333333333333</v>
       </c>
       <c r="E60">
-        <v>76.680000000000007</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -8822,7 +8801,7 @@
         <v>1.3</v>
       </c>
       <c r="Y60">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
         <v>1.2</v>
@@ -8885,12 +8864,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:45">
       <c r="A61">
-        <v>38.880000000000003</v>
+        <v>38.88</v>
       </c>
       <c r="B61">
-        <v>54.428571428571423</v>
+        <v>54.42857142857142</v>
       </c>
       <c r="C61">
         <v>23.4</v>
@@ -8980,7 +8959,7 @@
         <v>0.7</v>
       </c>
       <c r="AF61">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG61">
         <v>2</v>
@@ -9022,21 +9001,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:45">
       <c r="A62">
         <v>28.2</v>
       </c>
       <c r="B62">
-        <v>28.828571428571429</v>
+        <v>28.82857142857143</v>
       </c>
       <c r="C62">
         <v>48.8</v>
       </c>
       <c r="D62">
-        <v>38.520000000000003</v>
+        <v>38.52</v>
       </c>
       <c r="E62">
-        <v>35.118000000000002</v>
+        <v>35.118</v>
       </c>
       <c r="F62">
         <v>48</v>
@@ -9117,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG62">
         <v>4</v>
@@ -9138,10 +9117,10 @@
         <v>0.4</v>
       </c>
       <c r="AM62">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="AN62">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="AO62">
         <v>0.6</v>
@@ -9159,21 +9138,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:45">
       <c r="A63">
         <v>22.4</v>
       </c>
       <c r="B63">
-        <v>31.285714285714281</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="C63">
         <v>25.6</v>
       </c>
       <c r="D63">
-        <v>29.426666666666669</v>
+        <v>29.42666666666667</v>
       </c>
       <c r="E63">
-        <v>27.364000000000001</v>
+        <v>27.364</v>
       </c>
       <c r="F63">
         <v>59</v>
@@ -9275,7 +9254,7 @@
         <v>0.6</v>
       </c>
       <c r="AM63">
-        <v>0.45400000000000001</v>
+        <v>0.454</v>
       </c>
       <c r="AN63">
         <v>0.45</v>
@@ -9296,21 +9275,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:45">
       <c r="A64">
         <v>24.8</v>
       </c>
       <c r="B64">
-        <v>47.571428571428577</v>
+        <v>47.57142857142858</v>
       </c>
       <c r="C64">
         <v>27.2</v>
       </c>
       <c r="D64">
-        <v>42.326666666666668</v>
+        <v>42.32666666666667</v>
       </c>
       <c r="E64">
-        <v>35.999000000000002</v>
+        <v>35.999</v>
       </c>
       <c r="F64">
         <v>45</v>
@@ -9418,7 +9397,7 @@
         <v>0.45</v>
       </c>
       <c r="AO64">
-        <v>0.34899999999999998</v>
+        <v>0.349</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -9433,18 +9412,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:45">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65">
-        <v>67.771428571428572</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="C65">
         <v>70</v>
       </c>
       <c r="D65">
-        <v>65.533333333333346</v>
+        <v>65.53333333333335</v>
       </c>
       <c r="E65">
         <v>66.05</v>
@@ -9570,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:45">
       <c r="A66">
         <v>0</v>
       </c>
@@ -9593,12 +9572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:45">
       <c r="A67">
         <v>26.8</v>
       </c>
       <c r="B67">
-        <v>30.342857142857142</v>
+        <v>30.34285714285714</v>
       </c>
       <c r="C67">
         <v>23.6</v>
@@ -9730,7 +9709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:45">
       <c r="A68">
         <v>57.2</v>
       </c>
@@ -9741,10 +9720,10 @@
         <v>62</v>
       </c>
       <c r="D68">
-        <v>51.906666666666659</v>
+        <v>51.90666666666666</v>
       </c>
       <c r="E68">
-        <v>63.835999999999999</v>
+        <v>63.836</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -9831,10 +9810,10 @@
         <v>6</v>
       </c>
       <c r="AH68">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI68">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -9849,10 +9828,10 @@
         <v>0.2</v>
       </c>
       <c r="AN68">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AO68">
-        <v>0.45300000000000001</v>
+        <v>0.453</v>
       </c>
       <c r="AP68">
         <v>0.24</v>
@@ -9867,21 +9846,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45">
       <c r="A69">
-        <v>38.760000000000012</v>
+        <v>38.76000000000001</v>
       </c>
       <c r="B69">
-        <v>31.857142857142861</v>
+        <v>31.85714285714286</v>
       </c>
       <c r="C69">
-        <v>32.599999999999987</v>
+        <v>32.59999999999999</v>
       </c>
       <c r="D69">
-        <v>33.533333333333331</v>
+        <v>33.53333333333333</v>
       </c>
       <c r="E69">
-        <v>34.020000000000003</v>
+        <v>34.02</v>
       </c>
       <c r="F69">
         <v>51</v>
@@ -9962,7 +9941,7 @@
         <v>0.5</v>
       </c>
       <c r="AF69">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG69">
         <v>2</v>
@@ -10004,18 +9983,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:45">
       <c r="A70">
         <v>47.8</v>
       </c>
       <c r="B70">
-        <v>47.428571428571423</v>
+        <v>47.42857142857142</v>
       </c>
       <c r="C70">
         <v>60.2</v>
       </c>
       <c r="D70">
-        <v>30.133333333333329</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="E70">
         <v>48.12</v>
@@ -10105,10 +10084,10 @@
         <v>6</v>
       </c>
       <c r="AH70">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI70">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -10141,18 +10120,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:45">
       <c r="A71">
         <v>36</v>
       </c>
       <c r="B71">
-        <v>18.285714285714288</v>
+        <v>18.28571428571429</v>
       </c>
       <c r="C71">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>16.533333333333339</v>
+        <v>16.53333333333334</v>
       </c>
       <c r="E71">
         <v>20.88</v>
@@ -10278,7 +10257,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45">
       <c r="A72">
         <v>77.2</v>
       </c>
@@ -10289,7 +10268,7 @@
         <v>62.4</v>
       </c>
       <c r="D72">
-        <v>59.466666666666669</v>
+        <v>59.46666666666667</v>
       </c>
       <c r="E72">
         <v>65.17</v>

--- a/files/resultados/2021/resultados_2021.xlsx
+++ b/files/resultados/2021/resultados_2021.xlsx
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Los Martires</t>
+          <t>Alcaldia Local De Martires</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2064,10 +2064,8 @@
       <c r="AR11" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>35492fe1-7cc7-4e86-a18c-aa42d2e6469c</t>
-        </is>
+      <c r="AS11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2232,7 +2230,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Rafael Uribe Uribe</t>
+          <t>Alcaldia Local De Rafael Uribe</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2346,10 +2344,8 @@
       <c r="AR13" t="n">
         <v>0</v>
       </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
-        </is>
+      <c r="AS13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3615,10 +3611,8 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
-        </is>
+      <c r="AS22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3821,10 +3815,8 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
+      <c r="AS24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4553,7 +4545,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fondo De Prestaciones Economicas, Cesantias Y Pensiones</t>
+          <t>Fondo De Prestaciones Economicas Cesantias Y Pensiones</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -5117,7 +5109,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
+          <t>Instituto Distrital De La Participacion Y Accion Comunal Idpac</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -5231,10 +5223,8 @@
       <c r="AR34" t="n">
         <v>0</v>
       </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
-        </is>
+      <c r="AS34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6245,7 +6235,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Instituto Distrital Para La Economia Social</t>
+          <t>Instituto Para La Economia Social</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -6359,10 +6349,8 @@
       <c r="AR42" t="n">
         <v>3.5</v>
       </c>
-      <c r="AS42" t="inlineStr">
-        <is>
-          <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
-        </is>
+      <c r="AS42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6641,10 +6629,8 @@
       <c r="AR44" t="n">
         <v>0</v>
       </c>
-      <c r="AS44" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
+      <c r="AS44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6996,96 +6982,96 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>66.40000000000001</v>
+        <v>39.2</v>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>34.42857142857143</v>
       </c>
       <c r="C48" t="n">
-        <v>68.8</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n">
-        <v>40.66666666666666</v>
+        <v>45.46666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>62.3</v>
+        <v>41.67</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Hacienda</t>
+          <t>Secretaria Distrital De Ambiente</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W48" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AE48" t="n">
         <v>0.55</v>
@@ -7094,13 +7080,13 @@
         <v>0.55</v>
       </c>
       <c r="AG48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH48" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
@@ -7112,151 +7098,151 @@
         <v>0.6</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AR48" t="n">
         <v>3</v>
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>d8ee456f-f58d-423b-9407-1af8f7ee5faa</t>
+          <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39.2</v>
+        <v>52.8</v>
       </c>
       <c r="B49" t="n">
-        <v>34.42857142857143</v>
+        <v>46.35714285714285</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D49" t="n">
-        <v>45.46666666666667</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>41.67</v>
+        <v>52.345</v>
       </c>
       <c r="F49" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Ambiente</t>
+          <t>Secretaria Distrital De Cultura Recreacion Y Deporte</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.7</v>
       </c>
-      <c r="S49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.35</v>
-      </c>
       <c r="V49" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="W49" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y49" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Z49" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AE49" t="n">
         <v>0.55</v>
       </c>
       <c r="AF49" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI49" t="n">
         <v>0.55</v>
       </c>
-      <c r="AG49" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ49" t="n">
         <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
         <v>0</v>
@@ -7265,55 +7251,55 @@
         <v>0.48</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+          <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>52.8</v>
+        <v>25.2</v>
       </c>
       <c r="B50" t="n">
-        <v>46.35714285714285</v>
+        <v>40.77142857142858</v>
       </c>
       <c r="C50" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>56.13333333333333</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>52.345</v>
+        <v>34.94</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Cultura, Recreacion Y Deporte</t>
+          <t>Secretaria Distrital De Desarrollo Economico</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -7322,31 +7308,31 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="X50" t="n">
         <v>1</v>
@@ -7355,244 +7341,244 @@
         <v>0.75</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AE50" t="n">
         <v>0.55</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="AG50" t="n">
         <v>5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AJ50" t="n">
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
       </c>
       <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>0.48</v>
       </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
       <c r="AR50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
+          <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25.2</v>
+        <v>60.8</v>
       </c>
       <c r="B51" t="n">
-        <v>40.77142857142858</v>
+        <v>44.62857142857143</v>
       </c>
       <c r="C51" t="n">
-        <v>44</v>
+        <v>74.59999999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>22.46666666666667</v>
+        <v>68.68666666666668</v>
       </c>
       <c r="E51" t="n">
-        <v>34.94</v>
+        <v>59.773</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Desarrollo Economico</t>
+          <t>Secretaria Distrital De Gobierno</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y51" t="n">
         <v>0.75</v>
       </c>
       <c r="Z51" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE51" t="n">
         <v>0.55</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="AG51" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL51" t="n">
         <v>0.6</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.45</v>
+        <v>0.443</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.48</v>
+        <v>2.4</v>
       </c>
       <c r="AR51" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AS51" t="inlineStr">
         <is>
-          <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
+          <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>60.8</v>
+        <v>38.8</v>
       </c>
       <c r="B52" t="n">
-        <v>44.62857142857143</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="C52" t="n">
-        <v>74.59999999999998</v>
+        <v>51.8</v>
       </c>
       <c r="D52" t="n">
-        <v>68.68666666666668</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="E52" t="n">
-        <v>59.773</v>
+        <v>43.82000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Gobierno</t>
+          <t>Secretaria Distrital De Habitat</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -7601,41 +7587,41 @@
         <v>1.35</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y52" t="n">
         <v>0.9</v>
       </c>
-      <c r="U52" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0.75</v>
-      </c>
       <c r="Z52" t="n">
         <v>1.2</v>
       </c>
@@ -7643,25 +7629,25 @@
         <v>1.2</v>
       </c>
       <c r="AB52" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AE52" t="n">
         <v>0.55</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="AG52" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.4</v>
+        <v>0.55</v>
       </c>
       <c r="AI52" t="n">
         <v>1.15</v>
@@ -7673,170 +7659,170 @@
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.443</v>
+        <v>0.9</v>
       </c>
       <c r="AN52" t="n">
         <v>0.9</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AR52" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
+          <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>38.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>47.34285714285714</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
-        <v>51.8</v>
+        <v>68.8</v>
       </c>
       <c r="D53" t="n">
-        <v>30.66666666666666</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="E53" t="n">
-        <v>43.82000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Habitat</t>
+          <t>Secretaria Distrital De Hacienda</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.35</v>
       </c>
       <c r="P53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD53" t="n">
         <v>1.4</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>1.1</v>
       </c>
       <c r="AE53" t="n">
         <v>0.55</v>
       </c>
       <c r="AF53" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG53" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS53" t="inlineStr">
         <is>
-          <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
+          <t>d8ee456f-f58d-423b-9407-1af8f7ee5faa</t>
         </is>
       </c>
     </row>
@@ -8566,7 +8552,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Seguridad, Convivencia Y Justicia</t>
+          <t>Secretaria Distrital De Seguridad Convivencia Y Justicia</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -9412,7 +9398,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Subred Integrada De Servicios De Salud Sur Occidente E.S.E</t>
+          <t>Subred Integrada De Servicios De Salud Sur Occidente</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -9591,10 +9577,8 @@
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
+      <c r="AS66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -10182,7 +10166,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Universidad Distrital Francisco Jose De Caldas</t>
+          <t>Instituto Distrital Para La Economia Social</t>
         </is>
       </c>
       <c r="H71" t="n">

--- a/files/resultados/2021/resultados_2021.xlsx
+++ b/files/resultados/2021/resultados_2021.xlsx
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Martires</t>
+          <t>Alcaldia Local De Los Martires</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2064,8 +2064,10 @@
       <c r="AR11" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS11" t="n">
-        <v>0</v>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>35492fe1-7cc7-4e86-a18c-aa42d2e6469c</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2230,7 +2232,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Rafael Uribe</t>
+          <t>Alcaldia Local De Rafael Uribe Uribe</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2344,8 +2346,10 @@
       <c r="AR13" t="n">
         <v>0</v>
       </c>
-      <c r="AS13" t="n">
-        <v>0</v>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3497,7 +3501,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Caja De La Vivienda Popular</t>
+          <t>Caja De Vivienda Popular</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -3611,8 +3615,10 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" t="n">
-        <v>0</v>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -5090,26 +5096,26 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>74.80000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="B34" t="n">
-        <v>50.14285714285715</v>
+        <v>62.14285714285713</v>
       </c>
       <c r="C34" t="n">
-        <v>34.4</v>
+        <v>59.2</v>
       </c>
       <c r="D34" t="n">
-        <v>31.46666666666667</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>49.57000000000001</v>
+        <v>63.67</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Instituto Distrital De La Participacion Y Accion Comunal Idpac</t>
+          <t>Instituto Distrital De Las Artes</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -5122,133 +5128,135 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB34" t="n">
         <v>2.5</v>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AC34" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
         <v>0.55</v>
       </c>
       <c r="AG34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AM34" t="n">
         <v>0.6</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0.44</v>
-      </c>
       <c r="AN34" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP34" t="n">
         <v>0.48</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>9c4dae24-05a5-454b-bd06-b44f7b4b5aab</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74.8</v>
+        <v>74.80000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>62.14285714285713</v>
+        <v>50.14285714285715</v>
       </c>
       <c r="C35" t="n">
-        <v>59.2</v>
+        <v>34.4</v>
       </c>
       <c r="D35" t="n">
-        <v>56.13333333333333</v>
+        <v>31.46666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>63.67</v>
+        <v>49.57000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Las Artes</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -5261,49 +5269,49 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
         <v>2.2</v>
       </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P35" t="n">
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.05</v>
+        <v>0.3</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z35" t="n">
         <v>1.2</v>
@@ -5312,59 +5320,59 @@
         <v>1.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AF35" t="n">
         <v>0.55</v>
       </c>
       <c r="AG35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP35" t="n">
         <v>0.48</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>9c4dae24-05a5-454b-bd06-b44f7b4b5aab</t>
+          <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
         </is>
       </c>
     </row>
@@ -5934,36 +5942,36 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>58.7</v>
+        <v>32.488</v>
       </c>
       <c r="B40" t="n">
-        <v>56.57142857142857</v>
+        <v>34.42857142857144</v>
       </c>
       <c r="C40" t="n">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>68.59999999999999</v>
+        <v>50.06666666666668</v>
       </c>
       <c r="E40" t="n">
-        <v>56.415</v>
+        <v>39.182</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Instituto Distrital Para La Investigacion Educativa Y El Desarrollo Pedagogico</t>
+          <t>Instituto Distrital Para La Economia Social</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>0.5</v>
@@ -5972,94 +5980,94 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="R40" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="S40" t="n">
         <v>1.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U40" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="W40" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="X40" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE40" t="n">
         <v>0.55</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ40" t="n">
         <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.24</v>
@@ -6069,72 +6077,72 @@
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
+          <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38.00000000000001</v>
+        <v>58.7</v>
       </c>
       <c r="B41" t="n">
-        <v>40.28571428571429</v>
+        <v>56.57142857142857</v>
       </c>
       <c r="C41" t="n">
-        <v>56</v>
+        <v>46.6</v>
       </c>
       <c r="D41" t="n">
-        <v>10.66666666666667</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>39.2</v>
+        <v>56.415</v>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Instituto Distrital Para La Proteccion De La Ninez Y La Juventud</t>
+          <t>Instituto Distrital Para La Investigacion Educativa Y El Desarrollo Pedagogico</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>0.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.05</v>
+        <v>0.525</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
         <v>0.7</v>
@@ -6146,151 +6154,151 @@
         <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB41" t="n">
         <v>1.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" t="n">
         <v>0.55</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.55</v>
+        <v>1.1</v>
       </c>
       <c r="AG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
         <v>3</v>
       </c>
-      <c r="AH41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1</v>
-      </c>
       <c r="AL41" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>99890a0b-70de-4846-8562-08860ab50475</t>
+          <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32.488</v>
+        <v>38.00000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>34.42857142857144</v>
+        <v>40.28571428571429</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D42" t="n">
-        <v>50.06666666666668</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>39.182</v>
+        <v>39.2</v>
       </c>
       <c r="F42" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Instituto Para La Economia Social</t>
+          <t>Instituto Distrital Para La Proteccion De La Ninez Y La Juventud</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="T42" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U42" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="W42" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="X42" t="n">
         <v>0.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="n">
         <v>1</v>
@@ -6299,58 +6307,60 @@
         <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AC42" t="n">
         <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
         <v>0.55</v>
       </c>
       <c r="AF42" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AG42" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>99890a0b-70de-4846-8562-08860ab50475</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -10166,7 +10176,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Instituto Distrital Para La Economia Social</t>
+          <t>Universidad Distrital Francisco Jose De Caldas</t>
         </is>
       </c>
       <c r="H71" t="n">
